--- a/src/main/resources/static/files/cpy.xlsx
+++ b/src/main/resources/static/files/cpy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>区域</t>
   </si>
@@ -61,41 +61,74 @@
 （不含税）</t>
   </si>
   <si>
+    <r>
+      <t>实际结算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金额
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>账期</t>
+  </si>
+  <si>
+    <t>结算运营商</t>
+  </si>
+  <si>
+    <t>制表时间</t>
+  </si>
+  <si>
+    <t>回款编号</t>
+  </si>
+  <si>
+    <t>万州</t>
+  </si>
+  <si>
+    <t>500101908000000245</t>
+  </si>
+  <si>
+    <t>W_万州清堰街</t>
+  </si>
+  <si>
+    <t>独享</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>联通</t>
+  </si>
+  <si>
+    <t>万州-联通-20200205-002</t>
+  </si>
+  <si>
     <t>实际结算金额
 （不含税）</t>
-  </si>
-  <si>
-    <t>账期</t>
-  </si>
-  <si>
-    <t>结算运营商</t>
-  </si>
-  <si>
-    <t>制表时间</t>
-  </si>
-  <si>
-    <t>回款编号</t>
-  </si>
-  <si>
-    <t>万州</t>
-  </si>
-  <si>
-    <t>500101908000000245</t>
-  </si>
-  <si>
-    <t>W_万州清堰街</t>
-  </si>
-  <si>
-    <t>独享</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>联通</t>
-  </si>
-  <si>
-    <t>万州-联通-20200205-002</t>
   </si>
   <si>
     <t>限定如下字段</t>
@@ -251,14 +284,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +306,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +328,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,8 +356,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,30 +405,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,55 +442,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,187 +477,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,21 +706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +733,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +768,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,137 +803,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,17 +962,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,7 +1327,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1314,7 +1350,7 @@
     <col min="19" max="19" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="71.25" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="71.25" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1393,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1373,7 +1409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:19">
+    <row r="2" s="11" customFormat="1" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1404,10 +1440,10 @@
       <c r="J2" s="6">
         <v>5930.677</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>43831</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>43861</v>
       </c>
       <c r="M2" s="6">
@@ -1417,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="6">
-        <v>494.22</v>
+        <v>558.47</v>
       </c>
       <c r="P2" s="6">
         <v>202001</v>
@@ -1501,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -1518,64 +1554,64 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="75" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1599,38 +1635,38 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="10">
+      <c r="P3" s="8">
         <v>202001</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="8">
         <v>20200205</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>34</v>
+      <c r="S3" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1645,7 +1681,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1656,8 +1692,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1672,7 +1708,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1699,7 +1735,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1722,7 +1758,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1745,7 +1781,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1768,7 +1804,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1791,7 +1827,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1814,7 +1850,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1837,7 +1873,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1860,7 +1896,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1883,7 +1919,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1906,7 +1942,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1929,7 +1965,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1952,7 +1988,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1975,7 +2011,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1998,7 +2034,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2021,7 +2057,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2044,7 +2080,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2067,7 +2103,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2090,7 +2126,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2113,7 +2149,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2136,7 +2172,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2159,7 +2195,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2182,7 +2218,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2205,7 +2241,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2251,7 +2287,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2274,7 +2310,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2297,7 +2333,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2320,7 +2356,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2343,7 +2379,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2366,7 +2402,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2389,7 +2425,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2412,7 +2448,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2435,7 +2471,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2458,7 +2494,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2481,7 +2517,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
